--- a/Data/ETL/Inputs/clients_firt_100_input_file.xlsx
+++ b/Data/ETL/Inputs/clients_firt_100_input_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="job" sheetId="1" state="visible" r:id="rId2"/>
@@ -421,9 +421,6 @@
     <t xml:space="preserve">3, 4</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">companyName</t>
   </si>
   <si>
@@ -896,6 +893,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.theguarantors.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">companyLogoID</t>
   </si>
   <si>
     <t xml:space="preserve">companyLogoImage</t>
@@ -1247,13 +1247,13 @@
   </sheetPr>
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M40" activeCellId="0" sqref="M40"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.11"/>
@@ -1264,7 +1264,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="20.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.13"/>
   </cols>
@@ -1409,7 +1409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -2353,510 +2353,69 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O3" r:id="rId2" display="Link"/>
@@ -2912,13 +2471,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B98" activeCellId="0" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.5"/>
@@ -2934,31 +2493,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,19 +2525,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="G2" s="8" t="n">
         <v>4700</v>
@@ -2987,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>21</v>
@@ -3004,10 +2563,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>70</v>
@@ -3016,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -3033,10 +2592,10 @@
         <v>27</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>10000</v>
@@ -3045,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,7 +2612,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>29</v>
@@ -3062,10 +2621,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>150</v>
@@ -3074,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,7 +2641,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>32</v>
@@ -3091,10 +2650,10 @@
         <v>33</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>2000</v>
@@ -3103,7 +2662,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>35</v>
@@ -3120,7 +2679,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>150</v>
@@ -3129,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>37</v>
@@ -3146,10 +2705,10 @@
         <v>38</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>300</v>
@@ -3158,7 +2717,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,19 +2725,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>300</v>
@@ -3187,15 +2746,15 @@
         <v>8</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>43</v>
@@ -3204,10 +2763,10 @@
         <v>44</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>100000</v>
@@ -3216,7 +2775,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +2783,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>46</v>
@@ -3233,10 +2792,10 @@
         <v>47</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>2500</v>
@@ -3245,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,19 +2812,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>500</v>
@@ -3274,7 +2833,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,19 +2841,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>38</v>
@@ -3303,7 +2862,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,7 +2870,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>54</v>
@@ -3320,10 +2879,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>200</v>
@@ -3332,7 +2891,7 @@
         <v>13</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,19 +2899,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>100</v>
@@ -3361,7 +2920,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3369,19 +2928,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>300</v>
@@ -3390,7 +2949,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,7 +2957,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>58</v>
@@ -3407,10 +2966,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>300</v>
@@ -3419,7 +2978,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,7 +2986,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>60</v>
@@ -3436,10 +2995,10 @@
         <v>27</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>125</v>
@@ -3448,7 +3007,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,7 +3015,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>61</v>
@@ -3465,10 +3024,10 @@
         <v>47</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>225</v>
@@ -3477,7 +3036,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,19 +3044,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>100</v>
@@ -3506,7 +3065,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3514,7 +3073,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>63</v>
@@ -3523,10 +3082,10 @@
         <v>63</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>400</v>
@@ -3535,7 +3094,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,19 +3102,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>300</v>
@@ -3564,7 +3123,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,7 +3131,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>63</v>
@@ -3581,10 +3140,10 @@
         <v>63</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1300</v>
@@ -3593,7 +3152,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,19 +3160,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>235</v>
@@ -3622,7 +3181,7 @@
         <v>23</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,7 +3189,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>32</v>
@@ -3639,10 +3198,10 @@
         <v>71</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>600</v>
@@ -3651,7 +3210,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,19 +3218,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>230</v>
@@ -3680,7 +3239,7 @@
         <v>25</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,7 +3247,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>76</v>
@@ -3697,10 +3256,10 @@
         <v>33</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>250</v>
@@ -3709,7 +3268,7 @@
         <v>26</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,7 +3276,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>78</v>
@@ -3726,10 +3285,10 @@
         <v>79</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>2264</v>
@@ -3738,7 +3297,7 @@
         <v>27</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,19 +3305,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>200</v>
@@ -3767,7 +3326,7 @@
         <v>28</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,7 +3334,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>26</v>
@@ -3784,10 +3343,10 @@
         <v>27</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>40000</v>
@@ -3796,7 +3355,7 @@
         <v>29</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,7 +3363,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>86</v>
@@ -3813,10 +3372,10 @@
         <v>30</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>17</v>
@@ -3825,7 +3384,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,7 +3392,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>89</v>
@@ -3842,10 +3401,10 @@
         <v>90</v>
       </c>
       <c r="E32" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>9200</v>
@@ -3854,7 +3413,7 @@
         <v>31</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,19 +3421,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>500</v>
@@ -3883,7 +3442,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,7 +3450,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>63</v>
@@ -3900,10 +3459,10 @@
         <v>63</v>
       </c>
       <c r="E34" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>200</v>
@@ -3912,7 +3471,7 @@
         <v>33</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,7 +3479,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>94</v>
@@ -3929,10 +3488,10 @@
         <v>95</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>283</v>
@@ -3941,7 +3500,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,7 +3508,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>99</v>
@@ -3958,10 +3517,10 @@
         <v>100</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>3800</v>
@@ -3970,7 +3529,7 @@
         <v>35</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,7 +3537,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>103</v>
@@ -3987,10 +3546,10 @@
         <v>90</v>
       </c>
       <c r="E37" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>28540</v>
@@ -3999,7 +3558,7 @@
         <v>36</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,7 +3566,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>63</v>
@@ -4016,10 +3575,10 @@
         <v>63</v>
       </c>
       <c r="E38" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>220</v>
@@ -4028,513 +3587,334 @@
         <v>37</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>38</v>
-      </c>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H39" s="0" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>39</v>
-      </c>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="0" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>40</v>
-      </c>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H41" s="0" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>41</v>
-      </c>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H42" s="0" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>42</v>
-      </c>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H43" s="0" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>43</v>
-      </c>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H44" s="0" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>44</v>
-      </c>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H45" s="0" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>45</v>
-      </c>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H46" s="0" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>46</v>
-      </c>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H47" s="0" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>47</v>
-      </c>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H48" s="0" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>48</v>
-      </c>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H49" s="0" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>49</v>
-      </c>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H50" s="0" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>50</v>
-      </c>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H51" s="0" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>51</v>
-      </c>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H52" s="0" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>52</v>
-      </c>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H53" s="0" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>53</v>
-      </c>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H54" s="0" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>54</v>
-      </c>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H55" s="0" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>55</v>
-      </c>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H56" s="0" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>56</v>
-      </c>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H57" s="0" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>57</v>
-      </c>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H58" s="0" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>58</v>
-      </c>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H59" s="0" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>59</v>
-      </c>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H60" s="0" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>60</v>
-      </c>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H61" s="0" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>61</v>
-      </c>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H62" s="0" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>62</v>
-      </c>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H63" s="0" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>63</v>
-      </c>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H64" s="0" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>64</v>
-      </c>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H65" s="0" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>65</v>
-      </c>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H66" s="0" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>66</v>
-      </c>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H67" s="0" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>67</v>
-      </c>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H68" s="0" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>68</v>
-      </c>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H69" s="0" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>69</v>
-      </c>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H70" s="0" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>70</v>
-      </c>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H71" s="0" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>71</v>
-      </c>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H72" s="0" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>72</v>
-      </c>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H73" s="0" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>73</v>
-      </c>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H74" s="0" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>74</v>
-      </c>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H75" s="0" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>75</v>
-      </c>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H76" s="0" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>76</v>
-      </c>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H77" s="0" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>77</v>
-      </c>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H78" s="0" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>78</v>
-      </c>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H79" s="0" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>79</v>
-      </c>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H80" s="0" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>80</v>
-      </c>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H81" s="0" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>81</v>
-      </c>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H82" s="0" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>82</v>
-      </c>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H83" s="0" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>83</v>
-      </c>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H84" s="0" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>84</v>
-      </c>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H85" s="0" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>85</v>
-      </c>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H86" s="0" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>86</v>
-      </c>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H87" s="0" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>87</v>
-      </c>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H88" s="0" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>88</v>
-      </c>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H89" s="0" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>89</v>
-      </c>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H90" s="0" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>90</v>
-      </c>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H91" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>91</v>
-      </c>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H92" s="0" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>92</v>
-      </c>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H93" s="0" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>93</v>
-      </c>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H94" s="0" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>94</v>
-      </c>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H95" s="0" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>95</v>
-      </c>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H96" s="0" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>96</v>
-      </c>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H97" s="0" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>97</v>
-      </c>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H98" s="0" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>98</v>
-      </c>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H99" s="0" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>99</v>
-      </c>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H100" s="0" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
-        <v>100</v>
-      </c>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H101" s="0" t="n">
         <v>100</v>
       </c>
     </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="http://www.aarcorp.com"/>
@@ -4589,21 +3969,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>264</v>
@@ -4615,11 +3995,6 @@
       </c>
       <c r="B2" s="6" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4645,18 +4020,18 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>266</v>
@@ -4785,18 +4160,18 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>280</v>
@@ -4853,19 +4228,19 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>285</v>
@@ -4981,17 +4356,17 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.37"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>299</v>
